--- a/R_data/Metadata_Pk033_PkVRF01.xlsx
+++ b/R_data/Metadata_Pk033_PkVRF01.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/marius_saltvedt_uib_no/Documents/PhD/2nd Work Package/Transcriptomics/2022_Krabberod_meeting/R_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/marius_langvad_uib_no/Documents/PhD/2nd Work Package/Transcriptomics/VirVar-project_Transcriptomics/R_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{0126D0CD-C423-174B-9A97-AA29F78AF29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D1CEDC0-D81E-DB49-9AF4-3DF4A6E95582}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{0126D0CD-C423-174B-9A97-AA29F78AF29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ED7861B-8723-1245-B707-5F9961D8F57C}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{EFAD7797-2C0E-8442-B177-F520F12D1806}"/>
+    <workbookView xWindow="15360" yWindow="500" windowWidth="21180" windowHeight="17440" xr2:uid="{EFAD7797-2C0E-8442-B177-F520F12D1806}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="184">
   <si>
     <t>Sample_name</t>
   </si>
@@ -579,13 +579,22 @@
   </si>
   <si>
     <t>PkV</t>
+  </si>
+  <si>
+    <t>Dark_light</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -593,43 +602,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -637,74 +619,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,9 +644,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -763,7 +684,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -869,7 +790,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1011,27 +932,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9B9E45-9F4B-C345-9050-7B29F7302621}">
-  <dimension ref="A1:H85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4FC366-FF30-0E47-8A33-25F90E74B3BE}">
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,17 +967,18 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" t="s">
@@ -1066,17 +987,18 @@
       <c r="E2" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
@@ -1085,17 +1007,18 @@
       <c r="E3" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" t="s">
@@ -1104,17 +1027,18 @@
       <c r="E4" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
@@ -1123,17 +1047,18 @@
       <c r="E5" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" t="s">
@@ -1142,17 +1067,18 @@
       <c r="E6" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" t="s">
@@ -1161,17 +1087,18 @@
       <c r="E7" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
@@ -1180,17 +1107,18 @@
       <c r="E8" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
@@ -1199,17 +1127,18 @@
       <c r="E9" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
@@ -1218,17 +1147,18 @@
       <c r="E10" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
@@ -1237,17 +1167,18 @@
       <c r="E11" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
@@ -1256,17 +1187,18 @@
       <c r="E12" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
@@ -1275,17 +1207,18 @@
       <c r="E13" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>10</v>
       </c>
       <c r="D14" t="s">
@@ -1294,17 +1227,18 @@
       <c r="E14" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" t="s">
@@ -1313,17 +1247,18 @@
       <c r="E15" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>10</v>
       </c>
       <c r="D16" t="s">
@@ -1332,17 +1267,18 @@
       <c r="E16" t="s">
         <v>178</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>10</v>
       </c>
       <c r="D17" t="s">
@@ -1351,17 +1287,18 @@
       <c r="E17" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
       <c r="D18" t="s">
@@ -1370,17 +1307,18 @@
       <c r="E18" t="s">
         <v>177</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>10</v>
       </c>
       <c r="D19" t="s">
@@ -1389,17 +1327,18 @@
       <c r="E19" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>13</v>
       </c>
       <c r="D20" t="s">
@@ -1408,17 +1347,18 @@
       <c r="E20" t="s">
         <v>176</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>13</v>
       </c>
       <c r="D21" t="s">
@@ -1427,17 +1367,18 @@
       <c r="E21" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>13</v>
       </c>
       <c r="D22" t="s">
@@ -1446,17 +1387,18 @@
       <c r="E22" t="s">
         <v>178</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>13</v>
       </c>
       <c r="D23" t="s">
@@ -1465,17 +1407,18 @@
       <c r="E23" t="s">
         <v>176</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>13</v>
       </c>
       <c r="D24" t="s">
@@ -1484,17 +1427,18 @@
       <c r="E24" t="s">
         <v>177</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>13</v>
       </c>
       <c r="D25" t="s">
@@ -1503,17 +1447,18 @@
       <c r="E25" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>17</v>
       </c>
       <c r="D26" t="s">
@@ -1522,17 +1467,18 @@
       <c r="E26" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>17</v>
       </c>
       <c r="D27" t="s">
@@ -1541,17 +1487,18 @@
       <c r="E27" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>17</v>
       </c>
       <c r="D28" t="s">
@@ -1560,17 +1507,18 @@
       <c r="E28" t="s">
         <v>178</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>17</v>
       </c>
       <c r="D29" t="s">
@@ -1579,17 +1527,18 @@
       <c r="E29" t="s">
         <v>176</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>17</v>
       </c>
       <c r="D30" t="s">
@@ -1598,17 +1547,18 @@
       <c r="E30" t="s">
         <v>177</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>17</v>
       </c>
       <c r="D31" t="s">
@@ -1617,17 +1567,18 @@
       <c r="E31" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>19</v>
       </c>
       <c r="D32" t="s">
@@ -1636,17 +1587,18 @@
       <c r="E32" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>19</v>
       </c>
       <c r="D33" t="s">
@@ -1655,17 +1607,18 @@
       <c r="E33" t="s">
         <v>177</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>19</v>
       </c>
       <c r="D34" t="s">
@@ -1674,17 +1627,18 @@
       <c r="E34" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>19</v>
       </c>
       <c r="D35" t="s">
@@ -1693,17 +1647,18 @@
       <c r="E35" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>19</v>
       </c>
       <c r="D36" t="s">
@@ -1712,17 +1667,18 @@
       <c r="E36" t="s">
         <v>177</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>19</v>
       </c>
       <c r="D37" t="s">
@@ -1731,17 +1687,18 @@
       <c r="E37" t="s">
         <v>178</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D38" t="s">
@@ -1750,17 +1707,18 @@
       <c r="E38" t="s">
         <v>176</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D39" t="s">
@@ -1769,17 +1727,18 @@
       <c r="E39" t="s">
         <v>177</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D40" t="s">
@@ -1788,17 +1747,18 @@
       <c r="E40" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D41" t="s">
@@ -1807,17 +1767,18 @@
       <c r="E41" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D42" t="s">
@@ -1826,17 +1787,18 @@
       <c r="E42" t="s">
         <v>177</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D43" t="s">
@@ -1845,17 +1807,18 @@
       <c r="E43" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <v>24</v>
       </c>
       <c r="D44" t="s">
@@ -1864,17 +1827,18 @@
       <c r="E44" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <v>24</v>
       </c>
       <c r="D45" t="s">
@@ -1883,17 +1847,18 @@
       <c r="E45" t="s">
         <v>177</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <v>24</v>
       </c>
       <c r="D46" t="s">
@@ -1902,17 +1867,18 @@
       <c r="E46" t="s">
         <v>178</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <v>24</v>
       </c>
       <c r="D47" t="s">
@@ -1921,17 +1887,18 @@
       <c r="E47" t="s">
         <v>176</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <v>24</v>
       </c>
       <c r="D48" t="s">
@@ -1940,17 +1907,18 @@
       <c r="E48" t="s">
         <v>177</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <v>24</v>
       </c>
       <c r="D49" t="s">
@@ -1959,17 +1927,18 @@
       <c r="E49" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="1">
         <v>26</v>
       </c>
       <c r="D50" t="s">
@@ -1978,17 +1947,18 @@
       <c r="E50" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="1">
         <v>26</v>
       </c>
       <c r="D51" t="s">
@@ -1997,17 +1967,18 @@
       <c r="E51" t="s">
         <v>177</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <v>26</v>
       </c>
       <c r="D52" t="s">
@@ -2016,17 +1987,18 @@
       <c r="E52" t="s">
         <v>178</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="1">
         <v>26</v>
       </c>
       <c r="D53" t="s">
@@ -2035,17 +2007,18 @@
       <c r="E53" t="s">
         <v>176</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <v>26</v>
       </c>
       <c r="D54" t="s">
@@ -2054,17 +2027,18 @@
       <c r="E54" t="s">
         <v>177</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <v>26</v>
       </c>
       <c r="D55" t="s">
@@ -2073,17 +2047,18 @@
       <c r="E55" t="s">
         <v>178</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="1">
         <v>34</v>
       </c>
       <c r="D56" t="s">
@@ -2092,17 +2067,18 @@
       <c r="E56" t="s">
         <v>176</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>145</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="1">
         <v>34</v>
       </c>
       <c r="D57" t="s">
@@ -2111,17 +2087,18 @@
       <c r="E57" t="s">
         <v>177</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>34</v>
       </c>
       <c r="D58" t="s">
@@ -2130,17 +2107,18 @@
       <c r="E58" t="s">
         <v>178</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="1">
         <v>34</v>
       </c>
       <c r="D59" t="s">
@@ -2149,17 +2127,18 @@
       <c r="E59" t="s">
         <v>176</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="1">
         <v>34</v>
       </c>
       <c r="D60" t="s">
@@ -2168,17 +2147,18 @@
       <c r="E60" t="s">
         <v>177</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="1">
         <v>34</v>
       </c>
       <c r="D61" t="s">
@@ -2187,17 +2167,18 @@
       <c r="E61" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="1">
         <v>37</v>
       </c>
       <c r="D62" t="s">
@@ -2206,17 +2187,18 @@
       <c r="E62" t="s">
         <v>176</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="1">
         <v>37</v>
       </c>
       <c r="D63" t="s">
@@ -2225,17 +2207,18 @@
       <c r="E63" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="1">
         <v>37</v>
       </c>
       <c r="D64" t="s">
@@ -2244,17 +2227,18 @@
       <c r="E64" t="s">
         <v>178</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="1">
         <v>37</v>
       </c>
       <c r="D65" t="s">
@@ -2263,17 +2247,18 @@
       <c r="E65" t="s">
         <v>176</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="1">
         <v>37</v>
       </c>
       <c r="D66" t="s">
@@ -2282,17 +2267,18 @@
       <c r="E66" t="s">
         <v>177</v>
       </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="8"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="1">
         <v>37</v>
       </c>
       <c r="D67" t="s">
@@ -2301,17 +2287,18 @@
       <c r="E67" t="s">
         <v>178</v>
       </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" t="s">
         <v>156</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="1">
         <v>41</v>
       </c>
       <c r="D68" t="s">
@@ -2320,17 +2307,18 @@
       <c r="E68" t="s">
         <v>176</v>
       </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="1">
         <v>41</v>
       </c>
       <c r="D69" t="s">
@@ -2339,17 +2327,18 @@
       <c r="E69" t="s">
         <v>177</v>
       </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" t="s">
         <v>158</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="1">
         <v>41</v>
       </c>
       <c r="D70" t="s">
@@ -2358,17 +2347,18 @@
       <c r="E70" t="s">
         <v>178</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>159</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="1">
         <v>41</v>
       </c>
       <c r="D71" t="s">
@@ -2377,17 +2367,18 @@
       <c r="E71" t="s">
         <v>176</v>
       </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" t="s">
         <v>160</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="1">
         <v>41</v>
       </c>
       <c r="D72" t="s">
@@ -2396,17 +2387,18 @@
       <c r="E72" t="s">
         <v>177</v>
       </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="s">
         <v>161</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="1">
         <v>41</v>
       </c>
       <c r="D73" t="s">
@@ -2415,17 +2407,18 @@
       <c r="E73" t="s">
         <v>178</v>
       </c>
-      <c r="F73" s="6"/>
-      <c r="G73" s="8"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="1">
         <v>48</v>
       </c>
       <c r="D74" t="s">
@@ -2434,17 +2427,18 @@
       <c r="E74" t="s">
         <v>176</v>
       </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" t="s">
         <v>163</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="1">
         <v>48</v>
       </c>
       <c r="D75" t="s">
@@ -2453,17 +2447,18 @@
       <c r="E75" t="s">
         <v>177</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="1">
         <v>48</v>
       </c>
       <c r="D76" t="s">
@@ -2472,17 +2467,18 @@
       <c r="E76" t="s">
         <v>178</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" t="s">
         <v>165</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="1">
         <v>48</v>
       </c>
       <c r="D77" t="s">
@@ -2491,17 +2487,18 @@
       <c r="E77" t="s">
         <v>176</v>
       </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="1">
         <v>48</v>
       </c>
       <c r="D78" t="s">
@@ -2510,17 +2507,18 @@
       <c r="E78" t="s">
         <v>177</v>
       </c>
-      <c r="F78" s="6"/>
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="1">
         <v>48</v>
       </c>
       <c r="D79" t="s">
@@ -2529,17 +2527,18 @@
       <c r="E79" t="s">
         <v>178</v>
       </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="s">
         <v>168</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="1">
         <v>720</v>
       </c>
       <c r="D80" t="s">
@@ -2548,17 +2547,18 @@
       <c r="E80" t="s">
         <v>176</v>
       </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="1">
         <v>720</v>
       </c>
       <c r="D81" t="s">
@@ -2567,17 +2567,18 @@
       <c r="E81" t="s">
         <v>177</v>
       </c>
-      <c r="F81" s="6"/>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="1">
         <v>720</v>
       </c>
       <c r="D82" t="s">
@@ -2586,17 +2587,18 @@
       <c r="E82" t="s">
         <v>178</v>
       </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="1">
         <v>720</v>
       </c>
       <c r="D83" t="s">
@@ -2605,17 +2607,18 @@
       <c r="E83" t="s">
         <v>176</v>
       </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="1">
         <v>720</v>
       </c>
       <c r="D84" t="s">
@@ -2624,17 +2627,18 @@
       <c r="E84" t="s">
         <v>177</v>
       </c>
-      <c r="F84" s="6"/>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="1">
         <v>720</v>
       </c>
       <c r="D85" t="s">
@@ -2643,11 +2647,11 @@
       <c r="E85" t="s">
         <v>178</v>
       </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="8"/>
+      <c r="F85" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>